--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.265854406239</v>
+        <v>2074.615653474775</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.485887517613973</v>
+        <v>15.72005340145628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.041704902850064</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1043.350000000009</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.94</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.575377337951519</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.58806584514512</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553867</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.57537733795152</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1159,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1173,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1187,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1201,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1215,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1229,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1243,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1257,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1271,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1285,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1393,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>144.23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1404,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>149.405</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1415,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>147.52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1426,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>150.875</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1437,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999999979</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1459,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96499999999978</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999999978</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999999978</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1492,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999999977</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1503,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1514,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1525,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
@@ -1536,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -1547,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -1558,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -1591,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1602,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1613,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1624,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1635,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1646,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1657,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1668,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1679,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1690,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1701,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.6300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1712,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1723,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -1734,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -1745,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40">
@@ -1756,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41">
@@ -1767,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
@@ -1778,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>144.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1789,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>149.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1800,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>147.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1811,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>150.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1822,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>146.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.98500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1880,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.23000000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1891,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59.16500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>56.63000000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1913,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>61.49500000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1924,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -1935,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -1946,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -1957,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1968,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -1979,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.22999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1990,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>49.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2001,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>47.52000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2012,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>50.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2023,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>46.14000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2081,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2092,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -2125,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -2136,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2158,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2169,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2180,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2191,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2224,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2235,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2246,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2257,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2268,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2279,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2290,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2301,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2312,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2323,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2386,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2397,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2408,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2419,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
